--- a/Indices-Data.xlsx
+++ b/Indices-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>Country</t>
   </si>
@@ -40,331 +40,322 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>PSI 20</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
     <t>KOSPI</t>
   </si>
   <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>WIG20</t>
+  </si>
+  <si>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>BSE SOFIX</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>EGX 30</t>
+  </si>
+  <si>
+    <t>MSM 30</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
     <t>FTSE Singapore</t>
   </si>
   <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>Athens General Composite</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>SET</t>
   </si>
   <si>
     <t>Nikkei 225</t>
   </si>
   <si>
-    <t>PX</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>RTSI</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>SET</t>
+    <t>BSE Sensex</t>
   </si>
   <si>
     <t>Nifty 50</t>
   </si>
   <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>Nasdaq 100</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>BIST 100</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>Budapest SE</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>HNX 30</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
+    <t>Cyprus Main Market</t>
   </si>
   <si>
     <t>S&amp;P/ASX 200</t>
   </si>
   <si>
-    <t>Karachi 100</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>OMXS30</t>
-  </si>
-  <si>
-    <t>BEL 20</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>BSE SOFIX</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>Cyprus Main Market</t>
-  </si>
-  <si>
-    <t>EGX 30</t>
-  </si>
-  <si>
-    <t>MSM 30</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>WIG20</t>
-  </si>
-  <si>
-    <t>Athens General Composite</t>
-  </si>
-  <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
-    <t>OMX Helsinki 25</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>ATX</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>PSI 20</t>
-  </si>
-  <si>
-    <t>ISEQ Overall</t>
-  </si>
-  <si>
-    <t>China A50</t>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>South Korea</t>
   </si>
   <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Chile</t>
+    <t>Cyprus</t>
   </si>
   <si>
     <t>Australia</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Ireland</t>
   </si>
 </sst>
 </file>
@@ -722,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,25 +750,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>3152.18</v>
+        <v>4817.97</v>
       </c>
       <c r="D2">
-        <v>120.5</v>
+        <v>112.96</v>
       </c>
       <c r="E2">
-        <v>0.03974693899092263</v>
+        <v>0.02400845056652368</v>
       </c>
       <c r="F2">
-        <v>0.04102966221316695</v>
+        <v>0.02648489180126723</v>
       </c>
       <c r="G2">
-        <v>0.0887015152583539</v>
+        <v>0.0193735138251574</v>
       </c>
       <c r="H2">
-        <v>0.08843652442983041</v>
+        <v>-0.02422264097337934</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -785,25 +776,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>312.41</v>
+        <v>4623.74</v>
       </c>
       <c r="D3">
-        <v>8.480000000000018</v>
+        <v>105.0999999999995</v>
       </c>
       <c r="E3">
-        <v>0.02790116145165</v>
+        <v>0.02325921073597348</v>
       </c>
       <c r="F3">
-        <v>0.02766835883317231</v>
+        <v>0.0266137813338303</v>
       </c>
       <c r="G3">
-        <v>0.05047963927405874</v>
+        <v>0.02361368915056716</v>
       </c>
       <c r="H3">
-        <v>0.04976052600509906</v>
+        <v>0.1089994577830489</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -811,25 +802,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>3454.82</v>
+        <v>2266.69</v>
       </c>
       <c r="D4">
-        <v>83.78999999999996</v>
+        <v>48.30000000000018</v>
       </c>
       <c r="E4">
-        <v>0.02485590457515952</v>
+        <v>0.02177254675688234</v>
       </c>
       <c r="F4">
-        <v>0.02485590457515952</v>
+        <v>0.02177254675688234</v>
       </c>
       <c r="G4">
-        <v>0.05041015256824233</v>
+        <v>-0.009902330782402102</v>
       </c>
       <c r="H4">
-        <v>0.05041015256824233</v>
+        <v>0.1477725003291372</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -837,25 +828,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>7289.88</v>
+        <v>7370.74</v>
       </c>
       <c r="D5">
-        <v>170.2700000000004</v>
+        <v>125.8599999999997</v>
       </c>
       <c r="E5">
-        <v>0.02391563582836698</v>
+        <v>0.017372268415764</v>
       </c>
       <c r="F5">
-        <v>0.02455425264904987</v>
+        <v>0.0198326608424042</v>
       </c>
       <c r="G5">
-        <v>0.01975704167407799</v>
+        <v>0.0125209643828188</v>
       </c>
       <c r="H5">
-        <v>0.01975704167407799</v>
+        <v>-0.00869316738134418</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -863,25 +854,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>28139.03</v>
+        <v>3457.68</v>
       </c>
       <c r="D6">
-        <v>648.8999999999978</v>
+        <v>57.50999999999976</v>
       </c>
       <c r="E6">
-        <v>0.02360483562645932</v>
+        <v>0.01691386018934349</v>
       </c>
       <c r="F6">
-        <v>0.02232286425236074</v>
+        <v>0.01405177927691992</v>
       </c>
       <c r="G6">
-        <v>0.01806629735396315</v>
+        <v>0.003451124323162524</v>
       </c>
       <c r="H6">
-        <v>0.01816634306463794</v>
+        <v>0.0512797124979476</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -889,25 +880,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>1075.43</v>
+        <v>3837.49</v>
       </c>
       <c r="D7">
-        <v>24.38000000000011</v>
+        <v>60.05999999999995</v>
       </c>
       <c r="E7">
-        <v>0.02319585176728034</v>
+        <v>0.01589969900170218</v>
       </c>
       <c r="F7">
-        <v>0.02171101554385602</v>
+        <v>0.01835653019638572</v>
       </c>
       <c r="G7">
-        <v>0.05003966799236959</v>
+        <v>0.004475158787799582</v>
       </c>
       <c r="H7">
-        <v>0.04965024722117684</v>
+        <v>0.05128990998461247</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -915,25 +906,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>125076.63</v>
+        <v>62105.24</v>
       </c>
       <c r="D8">
-        <v>2690.710000000006</v>
+        <v>898.6599999999962</v>
       </c>
       <c r="E8">
-        <v>0.0219854538822768</v>
+        <v>0.01468240832930046</v>
       </c>
       <c r="F8">
-        <v>0.02053089888423743</v>
+        <v>0.01145036016050716</v>
       </c>
       <c r="G8">
-        <v>0.005524454402492607</v>
+        <v>0.01541941804508529</v>
       </c>
       <c r="H8">
-        <v>0.005524454402492607</v>
+        <v>0.1454048827005356</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -941,25 +932,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>1466.5</v>
+        <v>22794.18</v>
       </c>
       <c r="D9">
-        <v>29.78999999999996</v>
+        <v>324.380000000001</v>
       </c>
       <c r="E9">
-        <v>0.02073487342609148</v>
+        <v>0.01443626556533673</v>
       </c>
       <c r="F9">
-        <v>0.02073487342609148</v>
+        <v>0.01465855903867208</v>
       </c>
       <c r="G9">
-        <v>0.0569674080694218</v>
+        <v>0.0150085409385583</v>
       </c>
       <c r="H9">
-        <v>0.0569674080694218</v>
+        <v>0.08563611134302196</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -967,25 +958,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10">
-        <v>1633.19</v>
+        <v>8151.6</v>
       </c>
       <c r="D10">
-        <v>30.24000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="E10">
-        <v>0.01886521725568491</v>
+        <v>0.01160323153100618</v>
       </c>
       <c r="F10">
-        <v>0.02012775160172642</v>
+        <v>0.01404967223603881</v>
       </c>
       <c r="G10">
-        <v>0.001803637792192392</v>
+        <v>0.01186987057626543</v>
       </c>
       <c r="H10">
-        <v>0.001803637792192392</v>
+        <v>0.001630632955776479</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -993,25 +984,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>6257.83</v>
+        <v>6926.41</v>
       </c>
       <c r="D11">
-        <v>104.1999999999998</v>
+        <v>76.76999999999953</v>
       </c>
       <c r="E11">
-        <v>0.01693309477495397</v>
+        <v>0.01120788829777908</v>
       </c>
       <c r="F11">
-        <v>0.01034389545675785</v>
+        <v>0.01016389915024907</v>
       </c>
       <c r="G11">
-        <v>0.06383108276725302</v>
+        <v>-0.01831483943597501</v>
       </c>
       <c r="H11">
-        <v>0.04662263529277966</v>
+        <v>-0.0393723234507114</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1019,25 +1010,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12">
-        <v>15463.95</v>
+        <v>2036.97</v>
       </c>
       <c r="D12">
-        <v>249.9500000000007</v>
+        <v>21.16000000000008</v>
       </c>
       <c r="E12">
-        <v>0.01642894702247943</v>
+        <v>0.01049702104861083</v>
       </c>
       <c r="F12">
-        <v>0.0174805127698181</v>
+        <v>0.01466645022759394</v>
       </c>
       <c r="G12">
-        <v>0.05159218984845504</v>
+        <v>0.008752928621118095</v>
       </c>
       <c r="H12">
-        <v>0.05237586646982861</v>
+        <v>0.07809612695502843</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1045,25 +1036,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>1536.44</v>
+        <v>23136.31</v>
       </c>
       <c r="D13">
-        <v>22.66000000000008</v>
+        <v>214.4799999999996</v>
       </c>
       <c r="E13">
-        <v>0.01496915007464761</v>
+        <v>0.009357019051271287</v>
       </c>
       <c r="F13">
-        <v>0.01260640180377215</v>
+        <v>0.01179802756167336</v>
       </c>
       <c r="G13">
-        <v>0.05478679298499611</v>
+        <v>-0.01183629386605844</v>
       </c>
       <c r="H13">
-        <v>0.05656008063121365</v>
+        <v>0.03236988078663772</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1071,25 +1062,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>14347.25</v>
+        <v>3005.09</v>
       </c>
       <c r="D14">
-        <v>209.8999999999996</v>
+        <v>27.51000000000022</v>
       </c>
       <c r="E14">
-        <v>0.01484719554937808</v>
+        <v>0.009239046473982215</v>
       </c>
       <c r="F14">
-        <v>0.01609121962455462</v>
+        <v>0.01167976968189977</v>
       </c>
       <c r="G14">
-        <v>0.02051181107662603</v>
+        <v>0.01418151034336645</v>
       </c>
       <c r="H14">
-        <v>0.02201057849568389</v>
+        <v>0.07221357413913387</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1097,25 +1088,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15">
-        <v>48782.51</v>
+        <v>1560.34</v>
       </c>
       <c r="D15">
-        <v>689.1900000000023</v>
+        <v>13.92999999999984</v>
       </c>
       <c r="E15">
-        <v>0.01433026457728448</v>
+        <v>0.009007960372734214</v>
       </c>
       <c r="F15">
-        <v>0.01557365498605545</v>
+        <v>0.008949957242063045</v>
       </c>
       <c r="G15">
-        <v>0.01615716604490824</v>
+        <v>0.02479308785608469</v>
       </c>
       <c r="H15">
-        <v>0.01748245112193403</v>
+        <v>0.1248732293143124</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1123,25 +1114,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>645.6</v>
+        <v>44900.08</v>
       </c>
       <c r="D16">
-        <v>8.190000000000055</v>
+        <v>392.1300000000047</v>
       </c>
       <c r="E16">
-        <v>0.01284887278203994</v>
+        <v>0.00881033613096105</v>
       </c>
       <c r="F16">
-        <v>0.008373291657680859</v>
+        <v>0.002048139585354658</v>
       </c>
       <c r="G16">
-        <v>0.03738046555418029</v>
+        <v>-0.009447880129602182</v>
       </c>
       <c r="H16">
-        <v>0.03385753027543426</v>
+        <v>-0.009499342069771766</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1149,25 +1140,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>13105.2</v>
+        <v>3713.46</v>
       </c>
       <c r="D17">
-        <v>165.630000000001</v>
+        <v>32.42000000000007</v>
       </c>
       <c r="E17">
-        <v>0.01280027079725232</v>
+        <v>0.008807293590941789</v>
       </c>
       <c r="F17">
-        <v>0.01280027079725232</v>
+        <v>0.01124697265645791</v>
       </c>
       <c r="G17">
-        <v>0.01683079510997598</v>
+        <v>0.004708242771880533</v>
       </c>
       <c r="H17">
-        <v>0.01683079510997598</v>
+        <v>0.03696690113015455</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1175,25 +1166,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18">
-        <v>1453.12</v>
+        <v>678.48</v>
       </c>
       <c r="D18">
-        <v>17.37999999999988</v>
+        <v>5.670000000000073</v>
       </c>
       <c r="E18">
-        <v>0.01210525582626376</v>
+        <v>0.00842734204307316</v>
       </c>
       <c r="F18">
-        <v>0.0180815411661881</v>
+        <v>0.01086610224148443</v>
       </c>
       <c r="G18">
-        <v>-0.00476896965044904</v>
+        <v>0.00231631285597067</v>
       </c>
       <c r="H18">
-        <v>-0.00476896965044904</v>
+        <v>0.07761955249935459</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1201,25 +1192,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>1540.61</v>
+        <v>5773.55</v>
       </c>
       <c r="D19">
-        <v>18.36999999999989</v>
+        <v>45.22000000000025</v>
       </c>
       <c r="E19">
-        <v>0.01206774227454277</v>
+        <v>0.007894098279952466</v>
       </c>
       <c r="F19">
-        <v>0.004264406526373277</v>
+        <v>0.01033156889247944</v>
       </c>
       <c r="G19">
-        <v>0.05278702053715723</v>
+        <v>0.01212904865115116</v>
       </c>
       <c r="H19">
-        <v>0.05278702053715723</v>
+        <v>0.03175592926158677</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1227,25 +1218,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20">
-        <v>27878.22</v>
+        <v>13993.23</v>
       </c>
       <c r="D20">
-        <v>329.7000000000007</v>
+        <v>106.2999999999993</v>
       </c>
       <c r="E20">
-        <v>0.01196797504911329</v>
+        <v>0.007654679616013071</v>
       </c>
       <c r="F20">
-        <v>0.01157641224035477</v>
+        <v>0.01009157122330673</v>
       </c>
       <c r="G20">
-        <v>0.02324785285773734</v>
+        <v>-0.004153509722116144</v>
       </c>
       <c r="H20">
-        <v>0.02323464028983269</v>
+        <v>0.01190519689295644</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1253,25 +1244,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>46729.3</v>
+        <v>3107.62</v>
       </c>
       <c r="D21">
-        <v>540.6399999999994</v>
+        <v>20.96000000000004</v>
       </c>
       <c r="E21">
-        <v>0.01170503755683749</v>
+        <v>0.006790511426590484</v>
       </c>
       <c r="F21">
-        <v>0.0113256367857304</v>
+        <v>0.009237091678575782</v>
       </c>
       <c r="G21">
-        <v>0.05431934250210113</v>
+        <v>0.0007433981968021364</v>
       </c>
       <c r="H21">
-        <v>0.05316539475467086</v>
+        <v>0.06174130920913101</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1279,25 +1270,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22">
-        <v>44393.21</v>
+        <v>18384.27</v>
       </c>
       <c r="D22">
-        <v>492.510000000002</v>
+        <v>110.2000000000007</v>
       </c>
       <c r="E22">
-        <v>0.01121872771960364</v>
+        <v>0.006030402641557187</v>
       </c>
       <c r="F22">
-        <v>0.007592554897276615</v>
+        <v>0.01134743640167257</v>
       </c>
       <c r="G22">
-        <v>0.06447807917593273</v>
+        <v>0.002476365160080096</v>
       </c>
       <c r="H22">
-        <v>0.06461880551255494</v>
+        <v>0.06448614994961499</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1305,25 +1296,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23">
-        <v>1706.57</v>
+        <v>1584.93</v>
       </c>
       <c r="D23">
-        <v>14.67999999999984</v>
+        <v>9.090000000000146</v>
       </c>
       <c r="E23">
-        <v>0.008676687018659424</v>
+        <v>0.005768352116966247</v>
       </c>
       <c r="F23">
-        <v>0.004782567953748762</v>
+        <v>0.006266257241776652</v>
       </c>
       <c r="G23">
-        <v>0.01911939593628564</v>
+        <v>-0.009059534081104381</v>
       </c>
       <c r="H23">
-        <v>0.01913608142208978</v>
+        <v>-0.02973632811138582</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1331,25 +1322,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24">
-        <v>58423.34</v>
+        <v>3696.17</v>
       </c>
       <c r="D24">
-        <v>417.1099999999933</v>
+        <v>20.80999999999995</v>
       </c>
       <c r="E24">
-        <v>0.007190779335254138</v>
+        <v>0.005662030386138994</v>
       </c>
       <c r="F24">
-        <v>0.01663696696009209</v>
+        <v>0.01052996233423831</v>
       </c>
       <c r="G24">
-        <v>0.02817249591245186</v>
+        <v>0.01123912133490546</v>
       </c>
       <c r="H24">
-        <v>0.03076639923509372</v>
+        <v>0.07584691601742022</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1357,25 +1348,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25">
-        <v>351.51</v>
+        <v>6231.93</v>
       </c>
       <c r="D25">
-        <v>2.409999999999968</v>
+        <v>31.61999999999989</v>
       </c>
       <c r="E25">
-        <v>0.00690346605557135</v>
+        <v>0.005099745012749235</v>
       </c>
       <c r="F25">
-        <v>0.00742703142486989</v>
+        <v>0.001512665266094171</v>
       </c>
       <c r="G25">
-        <v>0.08754590448822608</v>
+        <v>0.001512249056652371</v>
       </c>
       <c r="H25">
-        <v>0.08754590448822608</v>
+        <v>0.04229085794279053</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1383,25 +1374,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26">
-        <v>4560.02</v>
+        <v>1985.31</v>
       </c>
       <c r="D26">
-        <v>31.17000000000007</v>
+        <v>4.539999999999964</v>
       </c>
       <c r="E26">
-        <v>0.006882541925654406</v>
+        <v>0.002292037944839675</v>
       </c>
       <c r="F26">
-        <v>0.007688104489901315</v>
+        <v>0.0055337781354865</v>
       </c>
       <c r="G26">
-        <v>0.08836382124493514</v>
+        <v>0.02711589217376509</v>
       </c>
       <c r="H26">
-        <v>0.08836382124493514</v>
+        <v>0.008429585588435318</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1409,25 +1400,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27">
-        <v>6757.9</v>
+        <v>46227.65</v>
       </c>
       <c r="D27">
-        <v>45.89999999999964</v>
+        <v>84.91000000000349</v>
       </c>
       <c r="E27">
-        <v>0.006838498212157207</v>
+        <v>0.001840159470373859</v>
       </c>
       <c r="F27">
-        <v>0.005665026769019477</v>
+        <v>0.001208681273418</v>
       </c>
       <c r="G27">
-        <v>0.03320276026393199</v>
+        <v>0.007242460990406041</v>
       </c>
       <c r="H27">
-        <v>0.03453546420378206</v>
+        <v>0.0631155519818678</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1435,25 +1426,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C28">
-        <v>45654.34</v>
+        <v>19998.12</v>
       </c>
       <c r="D28">
-        <v>309.7999999999956</v>
+        <v>35.61999999999898</v>
       </c>
       <c r="E28">
-        <v>0.006832134585553096</v>
+        <v>0.001784345648090158</v>
       </c>
       <c r="F28">
-        <v>0.005886752299557374</v>
+        <v>0.006633507567242791</v>
       </c>
       <c r="G28">
-        <v>0.02648086803850513</v>
+        <v>-0.006793180000894128</v>
       </c>
       <c r="H28">
-        <v>0.04241974530028925</v>
+        <v>0.1417292527860468</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1461,25 +1452,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29">
-        <v>5706.88</v>
+        <v>501.36</v>
       </c>
       <c r="D29">
-        <v>37.02999999999975</v>
+        <v>0.8300000000000409</v>
       </c>
       <c r="E29">
-        <v>0.006531036976286764</v>
+        <v>0.001658242263200993</v>
       </c>
       <c r="F29">
-        <v>0.002083373133013655</v>
+        <v>0.003826065567629211</v>
       </c>
       <c r="G29">
-        <v>0.03176054030935882</v>
+        <v>0.01059204921107137</v>
       </c>
       <c r="H29">
-        <v>0.02825669024916677</v>
+        <v>0.1113252180896165</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1487,25 +1478,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30">
-        <v>3645.05</v>
+        <v>30644.73</v>
       </c>
       <c r="D30">
-        <v>22.63000000000011</v>
+        <v>49.45999999999913</v>
       </c>
       <c r="E30">
-        <v>0.006247204907216863</v>
+        <v>0.001616589753906439</v>
       </c>
       <c r="F30">
-        <v>0.001800795262358657</v>
+        <v>0.001551991833842914</v>
       </c>
       <c r="G30">
-        <v>0.02975940160588331</v>
+        <v>0.01557569078194154</v>
       </c>
       <c r="H30">
-        <v>0.02626234739578703</v>
+        <v>0.1252258835013818</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1513,25 +1504,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31">
-        <v>14049.53</v>
+        <v>4852.81</v>
       </c>
       <c r="D31">
-        <v>81.29000000000087</v>
+        <v>7.660000000000764</v>
       </c>
       <c r="E31">
-        <v>0.005819630819630772</v>
+        <v>0.001580962405704822</v>
       </c>
       <c r="F31">
-        <v>0.001375110541061098</v>
+        <v>0.004003165458680957</v>
       </c>
       <c r="G31">
-        <v>0.02785009742498445</v>
+        <v>-0.002296400391887832</v>
       </c>
       <c r="H31">
-        <v>0.02435952719572265</v>
+        <v>0.04974152775503304</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1539,25 +1530,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C32">
-        <v>3824.68</v>
+        <v>6624.02</v>
       </c>
       <c r="D32">
-        <v>20.88999999999987</v>
+        <v>6.8700000000008</v>
       </c>
       <c r="E32">
-        <v>0.005491890982414871</v>
+        <v>0.001038211314538851</v>
       </c>
       <c r="F32">
-        <v>0.005491890982414871</v>
+        <v>0.003697197196683044</v>
       </c>
       <c r="G32">
-        <v>0.01826643273421413</v>
+        <v>0.01758015326827311</v>
       </c>
       <c r="H32">
-        <v>0.01826643273421413</v>
+        <v>0.05013035318580727</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1565,25 +1556,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33">
-        <v>1949.37</v>
+        <v>353.35</v>
       </c>
       <c r="D33">
-        <v>9.879999999999882</v>
+        <v>0.3300000000000409</v>
       </c>
       <c r="E33">
-        <v>0.005094122681735813</v>
+        <v>0.0009347912299586536</v>
       </c>
       <c r="F33">
-        <v>-0.0006006357993837419</v>
+        <v>0.0008043196082472281</v>
       </c>
       <c r="G33">
-        <v>0.03851599595271571</v>
+        <v>0.04882754526565769</v>
       </c>
       <c r="H33">
-        <v>0.03940313899242742</v>
+        <v>0.09551098328969188</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1591,25 +1582,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34">
-        <v>3761.88</v>
+        <v>44069.31</v>
       </c>
       <c r="D34">
-        <v>17.59999999999991</v>
+        <v>22.75</v>
       </c>
       <c r="E34">
-        <v>0.004700503167498038</v>
+        <v>0.0005164989047952151</v>
       </c>
       <c r="F34">
-        <v>0.0002609280951977322</v>
+        <v>0.003250703911923614</v>
       </c>
       <c r="G34">
-        <v>0.04262061779124515</v>
+        <v>0.0159120636578689</v>
       </c>
       <c r="H34">
-        <v>0.03907988699986409</v>
+        <v>0.0507501592870796</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1617,25 +1608,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35">
-        <v>6743.51</v>
+        <v>11380.55</v>
       </c>
       <c r="D35">
-        <v>21.69000000000051</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.003226804645170667</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.00426779273003608</v>
+        <v>0.001281229980781617</v>
       </c>
       <c r="G35">
-        <v>-0.02914929490858309</v>
+        <v>-0.01562303498741602</v>
       </c>
       <c r="H35">
-        <v>-0.02181315304263831</v>
+        <v>0.05604510905938365</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1643,25 +1634,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36">
-        <v>451.31</v>
+        <v>3565.55</v>
       </c>
       <c r="D36">
-        <v>1.430000000000007</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.003178625411220715</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.0009750627492021158</v>
+        <v>0.0005196154845414913</v>
       </c>
       <c r="G36">
-        <v>0.008698315256760791</v>
+        <v>0.001696862770437457</v>
       </c>
       <c r="H36">
-        <v>0.00863533853073073</v>
+        <v>-0.02547850780453531</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1669,25 +1660,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37">
-        <v>8407.700000000001</v>
+        <v>9024.23</v>
       </c>
       <c r="D37">
-        <v>21.90000000000146</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.002611557633141803</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.001818786797298078</v>
+        <v>5.33290670079456E-05</v>
       </c>
       <c r="G37">
-        <v>0.04517274478584765</v>
+        <v>0.009094792086834946</v>
       </c>
       <c r="H37">
-        <v>0.0416233469927989</v>
+        <v>0.03890517655007231</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1695,25 +1686,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38">
-        <v>6873.26</v>
+        <v>1481.38</v>
       </c>
       <c r="D38">
-        <v>16.30000000000018</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.002377146723912649</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.002241138969947487</v>
+        <v>0.001061007957559701</v>
       </c>
       <c r="G38">
-        <v>0.05544872763157893</v>
+        <v>0.01259783314535712</v>
       </c>
       <c r="H38">
-        <v>0.05515538218800931</v>
+        <v>-0.004319984186146764</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1721,25 +1712,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39">
-        <v>22793.94</v>
+        <v>302.11</v>
       </c>
       <c r="D39">
-        <v>47.85999999999694</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.002104098816147593</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.002324003253004414</v>
+        <v>0.001357466063348411</v>
       </c>
       <c r="G39">
-        <v>0.02897959623424184</v>
+        <v>-0.009208778203438794</v>
       </c>
       <c r="H39">
-        <v>0.02548519023658602</v>
+        <v>0.01569005598030748</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1747,25 +1738,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40">
-        <v>10797.99</v>
+        <v>1676.75</v>
       </c>
       <c r="D40">
-        <v>19.31999999999971</v>
+        <v>-1.369999999999891</v>
       </c>
       <c r="E40">
-        <v>0.001792428936037593</v>
+        <v>-0.0008163897695039335</v>
       </c>
       <c r="F40">
-        <v>0.00145287664965088</v>
+        <v>0.001506839658204973</v>
       </c>
       <c r="G40">
-        <v>0.01404117303156216</v>
+        <v>-0.01152750564441518</v>
       </c>
       <c r="H40">
-        <v>0.008713057828009907</v>
+        <v>-0.00709267038717587</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1773,25 +1764,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41">
-        <v>18042.07</v>
+        <v>1352.57</v>
       </c>
       <c r="D41">
-        <v>14.5</v>
+        <v>-1.110000000000127</v>
       </c>
       <c r="E41">
-        <v>0.0008043235999084519</v>
+        <v>-0.000819986998404465</v>
       </c>
       <c r="F41">
-        <v>0.00111986055067681</v>
+        <v>-0.007717337482955111</v>
       </c>
       <c r="G41">
-        <v>0.03849432066126179</v>
+        <v>-0.03099077484931589</v>
       </c>
       <c r="H41">
-        <v>0.03873736978766629</v>
+        <v>-0.1019829081755763</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1799,25 +1790,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42">
-        <v>36.08</v>
+        <v>781.42</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-0.8100000000000591</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>-0.001035501067461086</v>
       </c>
       <c r="F42">
-        <v>-0.004418804467902326</v>
+        <v>0.001380374383403549</v>
       </c>
       <c r="G42">
-        <v>-0.01276469294032223</v>
+        <v>0.006745700810385724</v>
       </c>
       <c r="H42">
-        <v>-0.01611733568534102</v>
+        <v>-0.04175024971180796</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1825,25 +1816,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43">
-        <v>10952.14</v>
+        <v>10704.75</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-12.95999999999913</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>-0.00120921353535397</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>-0.001766761144187612</v>
       </c>
       <c r="G43">
-        <v>0.009854996560709317</v>
+        <v>-0.02166085048337407</v>
       </c>
       <c r="H43">
-        <v>0.009854996560709317</v>
+        <v>-0.01219778707042274</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1851,25 +1842,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44">
-        <v>3699.36</v>
+        <v>1054.36</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-1.770000000000209</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>-0.001675930046490692</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.001028291701001383</v>
       </c>
       <c r="G44">
-        <v>0.01188175758023013</v>
+        <v>-0.01256021886295433</v>
       </c>
       <c r="H44">
-        <v>0.01109389220967705</v>
+        <v>0.0309519544445549</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1877,25 +1868,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>1451.23</v>
+        <v>3906.71</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>-7.259999999999764</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-0.001854894135621787</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-0.001854894135621787</v>
       </c>
       <c r="G45">
-        <v>-0.0248427508905682</v>
+        <v>-0.007146433263952923</v>
       </c>
       <c r="H45">
-        <v>-0.02458470524137091</v>
+        <v>0.0401057488278973</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1903,25 +1894,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46">
-        <v>8737.200000000001</v>
+        <v>6695.81</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-12.71000000000004</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>-0.001894605665631155</v>
       </c>
       <c r="F46">
-        <v>-2.665813606328449E-05</v>
+        <v>-0.004521296165565958</v>
       </c>
       <c r="G46">
-        <v>0.005539516830131097</v>
+        <v>0.01391696493768557</v>
       </c>
       <c r="H46">
-        <v>0.005539516830131097</v>
+        <v>-0.03154843189695877</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1929,25 +1920,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C47">
-        <v>2072.74</v>
+        <v>965.11</v>
       </c>
       <c r="D47">
-        <v>-1.370000000000346</v>
+        <v>-2.309999999999945</v>
       </c>
       <c r="E47">
-        <v>-0.0006605242730618466</v>
+        <v>-0.002387794339583582</v>
       </c>
       <c r="F47">
-        <v>-0.00321373993729146</v>
+        <v>3.648190637517423E-05</v>
       </c>
       <c r="G47">
-        <v>0.05931687808654407</v>
+        <v>-0.000695340468073069</v>
       </c>
       <c r="H47">
-        <v>0.0555302370852917</v>
+        <v>-0.02161330104143888</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1955,25 +1946,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C48">
-        <v>819.27</v>
+        <v>12548.63</v>
       </c>
       <c r="D48">
-        <v>-0.7599999999999909</v>
+        <v>-41.57999999999993</v>
       </c>
       <c r="E48">
-        <v>-0.0009267953611452606</v>
+        <v>-0.003302566041392452</v>
       </c>
       <c r="F48">
-        <v>-0.005341504501564898</v>
+        <v>0.008145450428983958</v>
       </c>
       <c r="G48">
-        <v>0.01640636463533074</v>
+        <v>0.007621354589097296</v>
       </c>
       <c r="H48">
-        <v>0.01295465722574196</v>
+        <v>-0.02563313084870733</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1981,25 +1972,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49">
-        <v>987.79</v>
+        <v>13580.78</v>
       </c>
       <c r="D49">
-        <v>-1.07000000000005</v>
+        <v>-56.72999999999956</v>
       </c>
       <c r="E49">
-        <v>-0.001082054082478856</v>
+        <v>-0.004159850295251788</v>
       </c>
       <c r="F49">
-        <v>0.0001502989048629555</v>
+        <v>-0.004159850295251788</v>
       </c>
       <c r="G49">
-        <v>0.01229096514037198</v>
+        <v>-0.01643430839314297</v>
       </c>
       <c r="H49">
-        <v>0.01204457270148973</v>
+        <v>0.05373098660178077</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2007,25 +1998,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C50">
-        <v>4730.63</v>
+        <v>16341.38</v>
       </c>
       <c r="D50">
-        <v>-7.609999999999673</v>
+        <v>-83.1299999999992</v>
       </c>
       <c r="E50">
-        <v>-0.001606081583034991</v>
+        <v>-0.005061338207349775</v>
       </c>
       <c r="F50">
-        <v>-0.006017789090462355</v>
+        <v>-0.005917322143506265</v>
       </c>
       <c r="G50">
-        <v>0.03527136882586768</v>
+        <v>0.03798192106051212</v>
       </c>
       <c r="H50">
-        <v>0.03175559602175548</v>
+        <v>0.1153277509838524</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2033,25 +2024,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51">
-        <v>3570.11</v>
+        <v>118430.53</v>
       </c>
       <c r="D51">
-        <v>-6.089999999999691</v>
+        <v>-768.4400000000023</v>
       </c>
       <c r="E51">
-        <v>-0.001702924892343693</v>
+        <v>-0.00644670000084735</v>
       </c>
       <c r="F51">
-        <v>-0.001548771545353489</v>
+        <v>0.001736795947183012</v>
       </c>
       <c r="G51">
-        <v>0.03608333272829811</v>
+        <v>-0.01066641715590799</v>
       </c>
       <c r="H51">
-        <v>0.03608333272829811</v>
+        <v>-0.04110354847915043</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2059,25 +2050,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52">
-        <v>2941.75</v>
+        <v>1500.51</v>
       </c>
       <c r="D52">
-        <v>-6.019999999999982</v>
+        <v>-10.51999999999998</v>
       </c>
       <c r="E52">
-        <v>-0.002042221747286965</v>
+        <v>-0.006962138408899921</v>
       </c>
       <c r="F52">
-        <v>-0.006452002036607896</v>
+        <v>-0.005638087926778557</v>
       </c>
       <c r="G52">
-        <v>0.06188066079738741</v>
+        <v>-0.008195128137776675</v>
       </c>
       <c r="H52">
-        <v>0.05827452306300951</v>
+        <v>0.03805570218193677</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2085,25 +2076,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53">
-        <v>540.3200000000001</v>
+        <v>30017.92</v>
       </c>
       <c r="D53">
-        <v>-1.259999999999991</v>
+        <v>-218.1700000000019</v>
       </c>
       <c r="E53">
-        <v>-0.00232652609032824</v>
+        <v>-0.007215549365013896</v>
       </c>
       <c r="F53">
-        <v>-0.002172469037531766</v>
+        <v>-0.005054462637339774</v>
       </c>
       <c r="G53">
-        <v>0.04046471487925341</v>
+        <v>0.01201935379059149</v>
       </c>
       <c r="H53">
-        <v>0.04046471487925341</v>
+        <v>0.07025456552381337</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2114,22 +2105,22 @@
         <v>111</v>
       </c>
       <c r="C54">
-        <v>15319.29</v>
+        <v>50889.76</v>
       </c>
       <c r="D54">
-        <v>-37.10999999999876</v>
+        <v>-434.9300000000003</v>
       </c>
       <c r="E54">
-        <v>-0.002416582011408819</v>
+        <v>-0.008474089176183974</v>
       </c>
       <c r="F54">
-        <v>-0.002262538864715058</v>
+        <v>-0.008064254823404671</v>
       </c>
       <c r="G54">
-        <v>0.06702924895467754</v>
+        <v>-0.01229050309912549</v>
       </c>
       <c r="H54">
-        <v>0.06702924895467754</v>
+        <v>0.07281605188263773</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2137,25 +2128,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C55">
-        <v>2091.66</v>
+        <v>14981.75</v>
       </c>
       <c r="D55">
-        <v>-5.230000000000018</v>
+        <v>-137.2000000000007</v>
       </c>
       <c r="E55">
-        <v>-0.002494169937383495</v>
+        <v>-0.00907470426187007</v>
       </c>
       <c r="F55">
-        <v>-0.002494169937383495</v>
+        <v>-0.008665118165532948</v>
       </c>
       <c r="G55">
-        <v>0.05914343295220914</v>
+        <v>-0.01156459928173825</v>
       </c>
       <c r="H55">
-        <v>0.05914343295220914</v>
+        <v>0.07865198207290036</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2163,25 +2154,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56">
-        <v>21625.37</v>
+        <v>37.09</v>
       </c>
       <c r="D56">
-        <v>-68.18000000000029</v>
+        <v>-0.3399999999999963</v>
       </c>
       <c r="E56">
-        <v>-0.003142869654805258</v>
+        <v>-0.009083622762489862</v>
       </c>
       <c r="F56">
-        <v>0.0006851586657179443</v>
+        <v>-0.006687210725639825</v>
       </c>
       <c r="G56">
-        <v>0.04773941852074182</v>
+        <v>-0.01760255106177833</v>
       </c>
       <c r="H56">
-        <v>0.04264923648362506</v>
+        <v>0.003147630883155506</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2189,103 +2180,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57">
-        <v>13558.19</v>
+        <v>6793.8</v>
       </c>
       <c r="D57">
-        <v>-52.54999999999927</v>
+        <v>-92.09999999999945</v>
       </c>
       <c r="E57">
-        <v>-0.003860921595739808</v>
+        <v>-0.01337515793142496</v>
       </c>
       <c r="F57">
-        <v>-0.005379205863883962</v>
+        <v>-0.01337515793142496</v>
       </c>
       <c r="G57">
-        <v>0.04219993648367981</v>
+        <v>-0.001895191502490179</v>
       </c>
       <c r="H57">
-        <v>0.04419684700679616</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58">
-        <v>5245.52</v>
-      </c>
-      <c r="D58">
-        <v>-36.5</v>
-      </c>
-      <c r="E58">
-        <v>-0.006910235099450546</v>
-      </c>
-      <c r="F58">
-        <v>-0.01129850458962112</v>
-      </c>
-      <c r="G58">
-        <v>0.07478432584518324</v>
-      </c>
-      <c r="H58">
-        <v>0.07113436737354317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59">
-        <v>7700.65</v>
-      </c>
-      <c r="D59">
-        <v>-59.42000000000007</v>
-      </c>
-      <c r="E59">
-        <v>-0.007657147422639232</v>
-      </c>
-      <c r="F59">
-        <v>-0.012042116453299</v>
-      </c>
-      <c r="G59">
-        <v>0.04778101247743582</v>
-      </c>
-      <c r="H59">
-        <v>0.04422275702938738</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60">
-        <v>18602.47</v>
-      </c>
-      <c r="D60">
-        <v>-173.8799999999974</v>
-      </c>
-      <c r="E60">
-        <v>-0.009260585790102804</v>
-      </c>
-      <c r="F60">
-        <v>-0.009107599469193262</v>
-      </c>
-      <c r="G60">
-        <v>0.058910170364602</v>
-      </c>
-      <c r="H60">
-        <v>0.058910170364602</v>
+        <v>0.03137951450562459</v>
       </c>
     </row>
   </sheetData>
